--- a/risultati_alle_mod_K.xlsx
+++ b/risultati_alle_mod_K.xlsx
@@ -490,25 +490,25 @@
         <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08812161325913284</v>
+        <v>0.08694692721978813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007765418723392177</v>
+        <v>0.007559768152963134</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8044487658468745</v>
+        <v>0.8051089035470875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02481950491462533</v>
+        <v>0.02494723840470688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006160078242071109</v>
+        <v>0.0006223647040212818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.960140118683527</v>
+        <v>0.9597137886283112</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.001000642776489258</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1142623044463811</v>
+        <v>0.11522571036204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01305587421739747</v>
+        <v>0.01327696432843673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6635500991641133</v>
+        <v>0.6067196003560357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04192342714602083</v>
+        <v>0.05682387964657178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001757573743667717</v>
+        <v>0.003228953298088074</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9095191209674225</v>
+        <v>0.9080419843122589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -552,25 +552,25 @@
         <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1859549169909719</v>
+        <v>0.1837376861685028</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03457923115311926</v>
+        <v>0.03375953731855524</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1872714652363222</v>
+        <v>0.1873855451427607</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03507060169175902</v>
+        <v>0.03511334252844962</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.487304604672282e-05</v>
+        <v>-1.546049066547539e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006450340345500205</v>
+        <v>0.008803026354384139</v>
       </c>
       <c r="G5" t="n">
-        <v>4.16068905727877e-05</v>
+        <v>7.749327299598171e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9973077521826716</v>
+        <v>0.9949144812564377</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001000881195068359</v>
+        <v>0.00099945068359375</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04477938761430732</v>
+        <v>0.0403051708623513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00200519355511238</v>
+        <v>0.001624506798243332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9518767984305979</v>
+        <v>0.9600995785302965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002896657912938061</v>
+        <v>0.004104530930429968</v>
       </c>
       <c r="G6" t="n">
-        <v>8.390627064586682e-06</v>
+        <v>1.68471741588563e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9988561643979382</v>
+        <v>0.9976975955842881</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06000065803527832</v>
+        <v>0.05651211738586426</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1124029323795714</v>
+        <v>0.11243933400719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01263441920752649</v>
+        <v>0.01264260383198043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5952912917789595</v>
+        <v>0.6119186382835824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07920275047824217</v>
+        <v>0.07601866315954367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006273075683318691</v>
+        <v>0.005778837148564161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8622327280706774</v>
+        <v>0.8477681331021435</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -676,25 +676,25 @@
         <v>80</v>
       </c>
       <c r="C8" t="n">
-        <v>9.305427917087978e-08</v>
+        <v>9.633995494185726e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>8.65909887201203e-15</v>
+        <v>9.281386918199088e-15</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999999999999782</v>
+        <v>0.9999999999997607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02095257383922908</v>
+        <v>0.0202581527610477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004390103504883469</v>
+        <v>0.0004103927532899443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9715930548614503</v>
+        <v>0.9734349183081523</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001000165939331055</v>
+        <v>0.0009996891021728516</v>
       </c>
     </row>
     <row r="9">
@@ -704,28 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09267008333103104</v>
+        <v>0.09131469802400242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008587744344580237</v>
+        <v>0.008338374075214752</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6935013431715107</v>
+        <v>0.753006861541561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02548455672550392</v>
+        <v>0.02335950910691198</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006494626314954273</v>
+        <v>0.0005456666657159038</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9873245703503859</v>
+        <v>0.9844598483861963</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005000114440917969</v>
+        <v>0.00500035285949707</v>
       </c>
     </row>
     <row r="10">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007203599077285753</v>
+        <v>0.0008665248161570093</v>
       </c>
       <c r="D10" t="n">
-        <v>5.189183966627215e-07</v>
+        <v>7.508652570159388e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999870913556763</v>
+        <v>0.9999808663892907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01956145641103612</v>
+        <v>0.02000828433328842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000382650576920866</v>
+        <v>0.0004003314419617148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9725361153493683</v>
+        <v>0.9713448644927261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02900314331054688</v>
+        <v>0.03000020980834961</v>
       </c>
     </row>
   </sheetData>

--- a/risultati_alle_mod_K.xlsx
+++ b/risultati_alle_mod_K.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08694692721978813</v>
+        <v>0.09482646153591366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007559768152963134</v>
+        <v>0.008992057807422113</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8051089035470875</v>
+        <v>0.7336261084701818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02494723840470688</v>
+        <v>0.02312480534815172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006223647040212818</v>
+        <v>0.0005347566223899063</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9597137886283112</v>
+        <v>0.9847742714255313</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001000642776489258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11522571036204</v>
+        <v>0.1195654240444575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01327696432843673</v>
+        <v>0.01429589062693093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6067196003560357</v>
+        <v>0.6314514225018637</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05682387964657178</v>
+        <v>0.03873184960659918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003228953298088074</v>
+        <v>0.001500156173948217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9080419843122589</v>
+        <v>0.9028935794091193</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.002990961074829102</v>
       </c>
     </row>
     <row r="4">
@@ -552,25 +552,25 @@
         <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1837376861685028</v>
+        <v>0.18373768617052</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03375953731855524</v>
+        <v>0.03375953731929648</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1873855451427607</v>
+        <v>0.1873855451473129</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03511334252844962</v>
+        <v>0.03511334253015564</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.546049066547539e-09</v>
+        <v>-1.546049510636749e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.002991437911987305</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008803026354384139</v>
+        <v>0.006432844888492792</v>
       </c>
       <c r="G5" t="n">
-        <v>7.749327299598171e-05</v>
+        <v>4.138149335940784e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9949144812564377</v>
+        <v>0.9973213397587389</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00099945068359375</v>
+        <v>0.002347230911254883</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0403051708623513</v>
+        <v>0.04631584119436853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001624506798243332</v>
+        <v>0.002145157145541965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9600995785302965</v>
+        <v>0.9472750420931946</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004104530930429968</v>
+        <v>0.002916006050421347</v>
       </c>
       <c r="G6" t="n">
-        <v>1.68471741588563e-05</v>
+        <v>8.503091286093906e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9976975955842881</v>
+        <v>0.998845769281683</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05651211738586426</v>
+        <v>0.1521124839782715</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11243933400719</v>
+        <v>0.1372283170240384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01264260383198043</v>
+        <v>0.01883161099324999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6119186382835824</v>
+        <v>0.3529241615997377</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07601866315954367</v>
+        <v>0.1036722936857353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005778837148564161</v>
+        <v>0.01074794447806135</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8477681331021435</v>
+        <v>0.7619592110376481</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0009980201721191406</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
-        <v>9.633995494185726e-08</v>
+        <v>1.250252383024717e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>9.281386918199088e-15</v>
+        <v>1.563131021258985e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999997607</v>
+        <v>0.9999999999995979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0202581527610477</v>
+        <v>0.03445772132397083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004103927532899443</v>
+        <v>0.001187334558840434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9734349183081523</v>
+        <v>0.922292498210229</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0.00197148323059082</v>
       </c>
     </row>
     <row r="9">
@@ -704,28 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09131469802400242</v>
+        <v>0.1061764900883697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008338374075214752</v>
+        <v>0.01127344704748566</v>
       </c>
       <c r="E9" t="n">
-        <v>0.753006861541561</v>
+        <v>0.6864283876845669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02335950910691198</v>
+        <v>0.03742826243096131</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005456666657159038</v>
+        <v>0.00140087482860091</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9844598483861963</v>
+        <v>0.9468672020306033</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00500035285949707</v>
+        <v>0.01784348487854004</v>
       </c>
     </row>
     <row r="10">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008665248161570093</v>
+        <v>0.0007202721970399165</v>
       </c>
       <c r="D10" t="n">
-        <v>7.508652570159388e-07</v>
+        <v>5.187920378287083e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999808663892907</v>
+        <v>0.9999866255224982</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02000828433328842</v>
+        <v>0.006526189894802719</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0004003314419617148</v>
+        <v>4.259115454302513e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9713448644927261</v>
+        <v>0.9972430373328257</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03000020980834961</v>
+        <v>0.04020166397094727</v>
       </c>
     </row>
   </sheetData>

--- a/risultati_alle_mod_K.xlsx
+++ b/risultati_alle_mod_K.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Random State</t>
+          <t>Training RMSE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Training RMSE</t>
+          <t>Training MSE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Training MSE</t>
+          <t>Training R^2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Training R^2</t>
+          <t>Test RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Test RMSE</t>
+          <t>Test MSE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Test MSE</t>
+          <t>Test R^2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Test R^2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Training Time (s)</t>
         </is>
@@ -487,28 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>0.08812161116001443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09482646153591366</v>
+        <v>0.007765418353436779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008992057807422113</v>
+        <v>0.8044491288813644</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7336261084701818</v>
+        <v>0.0248195365896924</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02312480534815172</v>
+        <v>0.0006160093965270799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005347566223899063</v>
+        <v>0.9601401884044383</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9847742714255313</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>0.003995656967163086</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>0.1138640249373122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1195654240444575</v>
+        <v>0.01296501617492485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01429589062693093</v>
+        <v>0.6735114463019645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6314514225018637</v>
+        <v>0.05153035205431115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03873184960659918</v>
+        <v>0.00265537718284125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001500156173948217</v>
+        <v>0.8281798381324645</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9028935794091193</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.002990961074829102</v>
+        <v>0.001993179321289062</v>
       </c>
     </row>
     <row r="4">
@@ -549,28 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>0.1992748777841298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18373768617052</v>
+        <v>0.03971047691587987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03375953731929648</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1274967628419047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1873855451473129</v>
+        <v>0.0162554245351649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03511334253015564</v>
+        <v>-0.05183161657999324</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.546049510636749e-09</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.002991437911987305</v>
+        <v>0.003955364227294922</v>
       </c>
     </row>
     <row r="5">
@@ -580,28 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.006459364889883747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006432844888492792</v>
+        <v>4.172339478066287e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>4.138149335940784e-05</v>
+        <v>0.9973002251841278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9973213397587389</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.002347230911254883</v>
+        <v>0.001995325088500977</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>0.04344036831589678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04631584119436853</v>
+        <v>0.001887065599420769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002145157145541965</v>
+        <v>0.9524794022640874</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9472750420931946</v>
+        <v>0.006702449761107257</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002916006050421347</v>
+        <v>4.492283280016673e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>8.503091286093906e-06</v>
+        <v>0.9970932007501044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.998845769281683</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1521124839782715</v>
+        <v>0.1735355854034424</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>0.1103423413641555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1372283170240384</v>
+        <v>0.01217543229772382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01883161099324999</v>
+        <v>0.6933949616491517</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3529241615997377</v>
+        <v>0.09255854824411351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1036722936857353</v>
+        <v>0.008567084853057887</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01074794447806135</v>
+        <v>0.4456539298080877</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7619592110376481</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.002992868423461914</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>9.3177946769855e-08</v>
       </c>
       <c r="C8" t="n">
-        <v>1.250252383024717e-07</v>
+        <v>8.682129764245932e-15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.563131021258985e-14</v>
+        <v>0.9999999999997814</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999995979</v>
+        <v>0.02095755511867359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03445772132397083</v>
+        <v>0.0004392191165522418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001187334558840434</v>
+        <v>0.9715796685348584</v>
       </c>
       <c r="H8" t="n">
-        <v>0.922292498210229</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.00197148323059082</v>
+        <v>0.002993345260620117</v>
       </c>
     </row>
     <row r="9">
@@ -704,28 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>0.09832430260182876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1061764900883697</v>
+        <v>0.00966766848213599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01127344704748566</v>
+        <v>0.7565461502108031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6864283876845669</v>
+        <v>0.03483163448811993</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03742826243096131</v>
+        <v>0.001213242761113985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00140087482860091</v>
+        <v>0.9214953081067868</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9468672020306033</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.01784348487854004</v>
+        <v>0.01690936088562012</v>
       </c>
     </row>
     <row r="10">
@@ -735,28 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>0.0007069807056780371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007202721970399165</v>
+        <v>4.998217182010154e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>5.187920378287083e-07</v>
+        <v>0.9999874133539303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999866255224982</v>
+        <v>0.006615340152826376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006526189894802719</v>
+        <v>4.376272533759689e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>4.259115454302513e-05</v>
+        <v>0.9971682672428387</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9972430373328257</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.04020166397094727</v>
+        <v>0.04488301277160645</v>
       </c>
     </row>
   </sheetData>

--- a/risultati_alle_mod_K.xlsx
+++ b/risultati_alle_mod_K.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08812161116001443</v>
+        <v>0.08170527857906579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007765418353436779</v>
+        <v>0.006675752547682747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8044491288813644</v>
+        <v>0.8599437152134508</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0248195365896924</v>
+        <v>0.07191108928263637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006160093965270799</v>
+        <v>0.0051712047618153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9601401884044383</v>
+        <v>0.8577036110727155</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003995656967163086</v>
+        <v>0.02363443374633789</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1138640249373122</v>
+        <v>0.108373572934728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01296501617492485</v>
+        <v>0.01174483131063882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6735114463019645</v>
+        <v>0.7535952048756223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05153035205431115</v>
+        <v>0.1110923507255975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00265537718284125</v>
+        <v>0.01234151038973917</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8281798381324645</v>
+        <v>0.6603978292764474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001993179321289062</v>
+        <v>0.01241970062255859</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1992748777841298</v>
+        <v>0.2183226600616493</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03971047691587987</v>
+        <v>0.04766478389639446</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1274967628419047</v>
+        <v>0.1988934170396156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0162554245351649</v>
+        <v>0.03955859134169446</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05183161657999324</v>
+        <v>-0.08853641622136088</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003955364227294922</v>
+        <v>0.003985881805419922</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006459364889883747</v>
+        <v>0.07137898971913317</v>
       </c>
       <c r="F5" t="n">
-        <v>4.172339478066287e-05</v>
+        <v>0.00509496017332412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9973002251841278</v>
+        <v>0.8598016385377376</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001995325088500977</v>
+        <v>0.005437612533569336</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04344036831589678</v>
+        <v>0.04100864911322064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001887065599420769</v>
+        <v>0.001681709302091252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9524794022640874</v>
+        <v>0.9647179916781609</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006702449761107257</v>
+        <v>0.07099858676908338</v>
       </c>
       <c r="F6" t="n">
-        <v>4.492283280016673e-05</v>
+        <v>0.005040799323207062</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9970932007501044</v>
+        <v>0.8612919862899284</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1735355854034424</v>
+        <v>0.1498522758483887</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1103423413641555</v>
+        <v>0.07807198532708125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01217543229772382</v>
+        <v>0.006095234892911989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6933949616491517</v>
+        <v>0.8721228883328043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09255854824411351</v>
+        <v>0.1337123362591596</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008567084853057887</v>
+        <v>0.01787898886788256</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4456539298080877</v>
+        <v>0.5080226618839747</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002992868423461914</v>
+        <v>0.005825996398925781</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.3177946769855e-08</v>
+        <v>4.739597785019561e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>8.682129764245932e-15</v>
+        <v>2.246378716376233e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999997814</v>
+        <v>0.9999999995287131</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02095755511867359</v>
+        <v>0.3694644898562486</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004392191165522418</v>
+        <v>0.136504009264738</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9715796685348584</v>
+        <v>-2.756189995781601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002993345260620117</v>
+        <v>0.009638547897338867</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09832430260182876</v>
+        <v>0.08550383965098156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00966766848213599</v>
+        <v>0.007310906595060765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7565461502108031</v>
+        <v>0.8466182787914877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03483163448811993</v>
+        <v>0.0890571154215816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001213242761113985</v>
+        <v>0.007931169807212906</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9214953081067868</v>
+        <v>0.7817574674534202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01690936088562012</v>
+        <v>0.0332481861114502</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0007069807056780371</v>
+        <v>0.0008093666120332443</v>
       </c>
       <c r="C10" t="n">
-        <v>4.998217182010154e-07</v>
+        <v>6.550743126741722e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999874133539303</v>
+        <v>0.999986256639407</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006615340152826376</v>
+        <v>0.06519656831022835</v>
       </c>
       <c r="F10" t="n">
-        <v>4.376272533759689e-05</v>
+        <v>0.004250592519430272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9971682672428387</v>
+        <v>0.8830361600100454</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04488301277160645</v>
+        <v>0.0937049388885498</v>
       </c>
     </row>
   </sheetData>
